--- a/app/config/tables/triagem/forms/discharge/discharge.xlsx
+++ b/app/config/tables/triagem/forms/discharge/discharge.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87890141-4F0D-4304-ABF4-DEB805FA67AB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CA8BCB-2D9D-4541-BE2D-6BBB19CE3C73}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="546">
   <si>
     <t>setting_name</t>
   </si>
@@ -952,9 +952,6 @@
     <t>anos</t>
   </si>
   <si>
-    <t>select_one_inline</t>
-  </si>
-  <si>
     <t>bcgmaealt</t>
   </si>
   <si>
@@ -1667,6 +1664,12 @@
   </si>
   <si>
     <t>semanes</t>
+  </si>
+  <si>
+    <t>maeq</t>
+  </si>
+  <si>
+    <t>exactdob2</t>
   </si>
 </sst>
 </file>
@@ -2207,7 +2210,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2216,7 +2219,7 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2273,7 +2276,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2297,10 +2300,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G5" s="2" t="b">
         <v>0</v>
@@ -2346,7 +2349,7 @@
   <dimension ref="A1:Q755"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
@@ -2409,7 +2412,7 @@
         <v>28</v>
       </c>
       <c r="M1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>144</v>
@@ -2434,13 +2437,13 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -2450,10 +2453,10 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>434</v>
+      </c>
+      <c r="C5" t="s">
         <v>435</v>
-      </c>
-      <c r="C5" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -2466,13 +2469,13 @@
         <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G7" t="s">
+        <v>436</v>
+      </c>
+      <c r="H7" t="s">
         <v>437</v>
-      </c>
-      <c r="H7" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2480,29 +2483,29 @@
         <v>146</v>
       </c>
       <c r="E8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
+        <v>439</v>
+      </c>
+      <c r="F10" t="s">
+        <v>378</v>
+      </c>
+      <c r="L10" t="s">
         <v>440</v>
-      </c>
-      <c r="F10" t="s">
-        <v>379</v>
-      </c>
-      <c r="L10" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2510,34 +2513,34 @@
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G11" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="P11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L13" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2552,13 +2555,13 @@
     </row>
     <row r="17" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
+        <v>445</v>
+      </c>
+      <c r="G17" t="s">
         <v>446</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>447</v>
-      </c>
-      <c r="H17" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="18" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2566,16 +2569,16 @@
         <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G18" t="s">
+        <v>448</v>
+      </c>
+      <c r="H18" t="s">
         <v>449</v>
       </c>
-      <c r="H18" t="s">
-        <v>450</v>
-      </c>
       <c r="P18" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="19" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2583,16 +2586,16 @@
         <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G19" t="s">
+        <v>450</v>
+      </c>
+      <c r="H19" t="s">
         <v>451</v>
       </c>
-      <c r="H19" t="s">
-        <v>452</v>
-      </c>
       <c r="P19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2600,26 +2603,26 @@
         <v>146</v>
       </c>
       <c r="E20" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F20" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C21" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="22" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F22" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L22">
         <v>99</v>
@@ -2627,10 +2630,10 @@
     </row>
     <row r="23" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F23" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L23">
         <v>99</v>
@@ -2638,7 +2641,7 @@
     </row>
     <row r="24" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2653,10 +2656,10 @@
     </row>
     <row r="27" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G27" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="28" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2664,10 +2667,10 @@
         <v>20</v>
       </c>
       <c r="F28" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="P28" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
@@ -2675,10 +2678,10 @@
         <v>20</v>
       </c>
       <c r="F29" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="P29" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="30" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2686,51 +2689,51 @@
         <v>146</v>
       </c>
       <c r="E30" t="s">
+        <v>512</v>
+      </c>
+      <c r="F30" t="s">
         <v>513</v>
-      </c>
-      <c r="F30" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="31" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C31" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="32" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F32" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L32" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="33" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="35" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F35" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L35" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="36" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="37" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2745,16 +2748,16 @@
     </row>
     <row r="39" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F39" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G39" t="s">
+        <v>453</v>
+      </c>
+      <c r="H39" t="s">
         <v>454</v>
-      </c>
-      <c r="H39" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="40" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2765,23 +2768,23 @@
         <v>62</v>
       </c>
       <c r="F40" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="41" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C41" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="42" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F42" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="L42">
         <v>999</v>
@@ -2789,7 +2792,7 @@
     </row>
     <row r="43" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="44" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2797,16 +2800,16 @@
         <v>20</v>
       </c>
       <c r="F44" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G44" t="s">
+        <v>456</v>
+      </c>
+      <c r="H44" t="s">
         <v>457</v>
       </c>
-      <c r="H44" t="s">
-        <v>458</v>
-      </c>
       <c r="P44" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="45" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2817,23 +2820,23 @@
         <v>62</v>
       </c>
       <c r="F45" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="46" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C46" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="47" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F47" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L47">
         <v>99999</v>
@@ -2841,7 +2844,7 @@
     </row>
     <row r="48" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="49" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2849,13 +2852,13 @@
         <v>9</v>
       </c>
       <c r="E49" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F49" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G49" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="50" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2873,16 +2876,16 @@
         <v>36</v>
       </c>
       <c r="E52" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F52" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G52" t="s">
+        <v>460</v>
+      </c>
+      <c r="H52" t="s">
         <v>461</v>
-      </c>
-      <c r="H52" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="53" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2890,26 +2893,26 @@
         <v>146</v>
       </c>
       <c r="E53" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F53" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="54" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C54" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="55" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F55" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="L55">
         <v>9999</v>
@@ -2917,7 +2920,7 @@
     </row>
     <row r="56" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="57" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2925,16 +2928,16 @@
         <v>36</v>
       </c>
       <c r="E57" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F57" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G57" t="s">
+        <v>463</v>
+      </c>
+      <c r="H57" t="s">
         <v>464</v>
-      </c>
-      <c r="H57" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="58" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2942,26 +2945,26 @@
         <v>146</v>
       </c>
       <c r="E58" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F58" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="59" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C59" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="60" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F60" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L60">
         <v>9999</v>
@@ -2969,7 +2972,7 @@
     </row>
     <row r="61" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="62" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2977,16 +2980,16 @@
         <v>36</v>
       </c>
       <c r="E62" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F62" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G62" t="s">
+        <v>532</v>
+      </c>
+      <c r="H62" t="s">
         <v>533</v>
-      </c>
-      <c r="H62" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="63" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2994,26 +2997,26 @@
         <v>146</v>
       </c>
       <c r="E63" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F63" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="64" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C64" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="65" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F65" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="L65">
         <v>9999</v>
@@ -3021,7 +3024,7 @@
     </row>
     <row r="66" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="67" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3029,16 +3032,16 @@
         <v>8</v>
       </c>
       <c r="F67" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G67" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H67" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="P67" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.25">
@@ -3056,13 +3059,13 @@
         <v>20</v>
       </c>
       <c r="F70" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G70" t="s">
+        <v>466</v>
+      </c>
+      <c r="H70" t="s">
         <v>467</v>
-      </c>
-      <c r="H70" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="71" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3073,23 +3076,23 @@
         <v>62</v>
       </c>
       <c r="F71" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="72" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C72" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="73" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F73" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="L73">
         <v>99999</v>
@@ -3097,7 +3100,7 @@
     </row>
     <row r="74" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.25">
@@ -3105,16 +3108,16 @@
         <v>36</v>
       </c>
       <c r="E75" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F75" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G75" t="s">
+        <v>469</v>
+      </c>
+      <c r="H75" t="s">
         <v>470</v>
-      </c>
-      <c r="H75" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="76" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3122,51 +3125,51 @@
         <v>146</v>
       </c>
       <c r="E76" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F76" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="77" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C77" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="78" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F78" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L78" s="25" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="79" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L79" s="25"/>
     </row>
     <row r="80" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F80" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L80" s="25" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="81" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.25">
@@ -3176,10 +3179,10 @@
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C83" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.25">
@@ -3189,13 +3192,13 @@
     </row>
     <row r="85" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G85" t="s">
+        <v>472</v>
+      </c>
+      <c r="H85" t="s">
         <v>473</v>
-      </c>
-      <c r="H85" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="86" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3203,16 +3206,16 @@
         <v>20</v>
       </c>
       <c r="F86" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G86" t="s">
+        <v>448</v>
+      </c>
+      <c r="H86" t="s">
         <v>449</v>
       </c>
-      <c r="H86" t="s">
-        <v>450</v>
-      </c>
       <c r="P86" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="87" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3220,16 +3223,16 @@
         <v>20</v>
       </c>
       <c r="F87" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G87" t="s">
+        <v>450</v>
+      </c>
+      <c r="H87" t="s">
         <v>451</v>
       </c>
-      <c r="H87" t="s">
-        <v>452</v>
-      </c>
       <c r="P87" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="88" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3237,26 +3240,26 @@
         <v>146</v>
       </c>
       <c r="E88" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F88" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="89" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C89" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="90" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F90" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L90">
         <v>99</v>
@@ -3264,10 +3267,10 @@
     </row>
     <row r="91" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F91" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="L91">
         <v>99</v>
@@ -3275,7 +3278,7 @@
     </row>
     <row r="92" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.25">
@@ -3285,12 +3288,12 @@
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="105" spans="13:13" x14ac:dyDescent="0.25">
@@ -7804,7 +7807,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B105" s="5" t="str">
         <f>"99999"</f>
@@ -8863,241 +8866,241 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B171" s="7" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D171" s="7"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B172" s="7" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D172" s="7"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B173" s="7" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D173" s="7"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B174" s="5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D174" s="5"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B175" s="5" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D175" s="5"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B176" s="5" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D176" s="5"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B177" s="5" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D177" s="5"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B178" s="5" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D178" s="5"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B179" s="5" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D179" s="5"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B180" s="5" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D180" s="5"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B181" s="5" t="str">
         <f>"8"</f>
         <v>8</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D181" s="5"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B182" s="5" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D182" s="5"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B183" s="5" t="str">
         <f>"10"</f>
         <v>10</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D183" s="5"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B184" s="7" t="str">
         <f>"9999"</f>
         <v>9999</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D184" s="7"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B185" s="5" t="str">
         <f>"55"</f>
         <v>55</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D185" s="5"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B186" s="5" t="str">
         <f>"51"</f>
         <v>51</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D186" s="5"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B187" s="5" t="str">
         <f>"53"</f>
         <v>53</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D187" s="5"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B188" s="5" t="str">
         <f>"54"</f>
         <v>54</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D188" s="5"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B189" s="8" t="s">
         <v>301</v>
@@ -9109,307 +9112,307 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B191" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="C191" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="C191" s="5" t="s">
-        <v>478</v>
-      </c>
       <c r="D191" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B192" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="C192" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="C192" s="5" t="s">
-        <v>480</v>
-      </c>
       <c r="D192" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B193" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="C193" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="C193" s="5" t="s">
-        <v>482</v>
-      </c>
       <c r="D193" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B194" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="C194" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="C194" s="5" t="s">
-        <v>484</v>
-      </c>
       <c r="D194" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B195" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="C195" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="C195" s="5" t="s">
-        <v>486</v>
-      </c>
       <c r="D195" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B196" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="C196" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="C196" s="5" t="s">
-        <v>488</v>
-      </c>
       <c r="D196" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B197" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="C197" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="C197" s="5" t="s">
-        <v>490</v>
-      </c>
       <c r="D197" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B198" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="C198" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="C198" s="5" t="s">
-        <v>492</v>
-      </c>
       <c r="D198" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B199" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="C199" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="C199" s="5" t="s">
-        <v>494</v>
-      </c>
       <c r="D199" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B200" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C200" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="C200" s="5" t="s">
-        <v>496</v>
-      </c>
       <c r="D200" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B201" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="C201" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="C201" s="5" t="s">
-        <v>498</v>
-      </c>
       <c r="D201" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B202" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="C202" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="C202" s="5" t="s">
-        <v>500</v>
-      </c>
       <c r="D202" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B203" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B204" s="7" t="str">
         <f>"999"</f>
         <v>999</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D204" s="7"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B205" s="5" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D205" s="5"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B206" s="5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D206" s="5"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B207" s="5" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D207" s="5"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B208" s="5" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D208" s="5"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B209" s="7" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D209" s="7"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B210" s="7" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D210" s="7"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B211" s="7" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D211" s="7"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B212" s="7" t="str">
         <f>"99"</f>
@@ -9424,119 +9427,119 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B221" s="7" t="s">
         <v>62</v>
@@ -9550,32 +9553,32 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="26" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B222" s="5" t="s">
         <v>232</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D222" s="5"/>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B223" s="7" t="str">
         <f>"88888"</f>
         <v>88888</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D223" s="7"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B224" s="7" t="str">
         <f>"99999"</f>
@@ -9686,7 +9689,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49955335-AC2E-46D7-A127-46FEF28BC146}">
-  <dimension ref="A1:D170"/>
+  <dimension ref="A1:D172"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
       <selection activeCell="A139" sqref="A1:C1048576"/>
@@ -9730,7 +9733,7 @@
         <v>235</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>306</v>
+        <v>36</v>
       </c>
       <c r="C3" s="10" t="b">
         <v>0</v>
@@ -9738,10 +9741,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>307</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>308</v>
       </c>
       <c r="C4" s="10" t="b">
         <v>0</v>
@@ -9749,10 +9752,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C5" s="10" t="b">
         <v>0</v>
@@ -9760,7 +9763,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>8</v>
@@ -9771,7 +9774,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>8</v>
@@ -9782,7 +9785,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>8</v>
@@ -9804,7 +9807,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>20</v>
@@ -9815,7 +9818,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>8</v>
@@ -9826,7 +9829,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>9</v>
@@ -9837,7 +9840,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>9</v>
@@ -9848,7 +9851,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>9</v>
@@ -9859,7 +9862,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>36</v>
@@ -9870,7 +9873,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>36</v>
@@ -9881,10 +9884,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C17" s="10" t="b">
         <v>0</v>
@@ -9892,7 +9895,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>36</v>
@@ -9903,10 +9906,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C19" s="10" t="b">
         <v>0</v>
@@ -9914,7 +9917,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>20</v>
@@ -9925,7 +9928,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>8</v>
@@ -9936,7 +9939,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>8</v>
@@ -9947,7 +9950,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>8</v>
@@ -9958,7 +9961,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>20</v>
@@ -9969,7 +9972,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>21</v>
@@ -9980,7 +9983,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>9</v>
@@ -9991,7 +9994,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>20</v>
@@ -10002,7 +10005,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>8</v>
@@ -10013,7 +10016,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>20</v>
@@ -10035,7 +10038,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>9</v>
@@ -10046,7 +10049,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>20</v>
@@ -10057,7 +10060,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>8</v>
@@ -10068,7 +10071,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>8</v>
@@ -10079,7 +10082,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>8</v>
@@ -10090,10 +10093,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C36" s="10" t="b">
         <v>0</v>
@@ -10101,7 +10104,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>21</v>
@@ -10112,7 +10115,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>9</v>
@@ -10134,7 +10137,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>8</v>
@@ -10145,7 +10148,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>21</v>
@@ -10156,7 +10159,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>21</v>
@@ -10167,7 +10170,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>20</v>
@@ -10178,7 +10181,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>9</v>
@@ -10189,7 +10192,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>8</v>
@@ -10200,7 +10203,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>9</v>
@@ -10211,7 +10214,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>8</v>
@@ -10222,7 +10225,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>20</v>
@@ -10233,7 +10236,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>20</v>
@@ -10244,7 +10247,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>20</v>
@@ -10255,10 +10258,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C51" s="10" t="b">
         <v>0</v>
@@ -10266,7 +10269,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B52" s="10" t="s">
         <v>9</v>
@@ -10277,7 +10280,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>21</v>
@@ -10288,7 +10291,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B54" s="10" t="s">
         <v>8</v>
@@ -10299,7 +10302,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B55" s="10" t="s">
         <v>8</v>
@@ -10310,7 +10313,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B56" s="10" t="s">
         <v>21</v>
@@ -10321,7 +10324,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B57" s="10" t="s">
         <v>21</v>
@@ -10332,7 +10335,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B58" s="10" t="s">
         <v>21</v>
@@ -10343,7 +10346,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B59" s="10" t="s">
         <v>21</v>
@@ -10354,7 +10357,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B60" s="10" t="s">
         <v>21</v>
@@ -10365,7 +10368,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B61" s="10" t="s">
         <v>21</v>
@@ -10376,7 +10379,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B62" s="10" t="s">
         <v>21</v>
@@ -10387,7 +10390,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B63" s="10" t="s">
         <v>21</v>
@@ -10398,7 +10401,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B64" s="10" t="s">
         <v>21</v>
@@ -10409,7 +10412,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B65" s="10" t="s">
         <v>21</v>
@@ -10420,7 +10423,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B66" s="10" t="s">
         <v>21</v>
@@ -10431,7 +10434,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B67" s="10" t="s">
         <v>21</v>
@@ -11069,7 +11072,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B125" s="12" t="s">
         <v>9</v>
@@ -11080,7 +11083,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B126" s="12" t="s">
         <v>8</v>
@@ -11091,7 +11094,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B127" s="12" t="s">
         <v>8</v>
@@ -11102,7 +11105,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B128" s="12" t="s">
         <v>8</v>
@@ -11113,7 +11116,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B129" s="16" t="s">
         <v>146</v>
@@ -11124,7 +11127,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B130" s="16" t="s">
         <v>146</v>
@@ -11135,7 +11138,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="15" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B131" s="16" t="s">
         <v>146</v>
@@ -11146,7 +11149,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="23" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B132" s="23" t="s">
         <v>20</v>
@@ -11157,7 +11160,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="23" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B133" s="23" t="s">
         <v>8</v>
@@ -11168,7 +11171,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="23" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B134" s="23" t="s">
         <v>8</v>
@@ -11179,7 +11182,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="23" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B135" s="23" t="s">
         <v>9</v>
@@ -11190,7 +11193,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="23" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B136" s="23" t="s">
         <v>9</v>
@@ -11201,7 +11204,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="23" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B137" s="23" t="s">
         <v>9</v>
@@ -11212,7 +11215,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="24" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B138" s="24" t="s">
         <v>146</v>
@@ -11222,52 +11225,52 @@
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="21" t="s">
-        <v>506</v>
-      </c>
-      <c r="B139" s="21" t="s">
+      <c r="A139" s="24" t="s">
+        <v>545</v>
+      </c>
+      <c r="B139" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C139" s="24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="24" t="s">
+        <v>544</v>
+      </c>
+      <c r="B140" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C140" s="24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="B141" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C139" s="21" t="b">
+      <c r="C141" s="21" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="B140" s="21" t="s">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="B142" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C140" s="21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="17" t="s">
-        <v>543</v>
-      </c>
-      <c r="B141" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C141" s="17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="17" t="s">
-        <v>397</v>
-      </c>
-      <c r="B142" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C142" s="17" t="b">
+      <c r="C142" s="21" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="17" t="s">
-        <v>398</v>
+        <v>542</v>
       </c>
       <c r="B143" s="17" t="s">
         <v>8</v>
@@ -11278,7 +11281,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="17" t="s">
-        <v>528</v>
+        <v>396</v>
       </c>
       <c r="B144" s="17" t="s">
         <v>8</v>
@@ -11289,10 +11292,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="17" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="B145" s="17" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C145" s="17" t="b">
         <v>0</v>
@@ -11300,10 +11303,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="17" t="s">
-        <v>409</v>
+        <v>527</v>
       </c>
       <c r="B146" s="17" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C146" s="17" t="b">
         <v>0</v>
@@ -11311,7 +11314,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="17" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B147" s="17" t="s">
         <v>20</v>
@@ -11322,7 +11325,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="17" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B148" s="17" t="s">
         <v>20</v>
@@ -11333,10 +11336,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="17" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B149" s="17" t="s">
-        <v>308</v>
+        <v>20</v>
       </c>
       <c r="C149" s="17" t="b">
         <v>0</v>
@@ -11344,7 +11347,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="17" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B150" s="17" t="s">
         <v>20</v>
@@ -11355,10 +11358,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="17" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B151" s="17" t="s">
-        <v>20</v>
+        <v>307</v>
       </c>
       <c r="C151" s="17" t="b">
         <v>0</v>
@@ -11366,7 +11369,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="17" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B152" s="17" t="s">
         <v>20</v>
@@ -11377,10 +11380,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="17" t="s">
-        <v>379</v>
+        <v>413</v>
       </c>
       <c r="B153" s="17" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C153" s="17" t="b">
         <v>0</v>
@@ -11388,10 +11391,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="17" t="s">
-        <v>389</v>
+        <v>414</v>
       </c>
       <c r="B154" s="17" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C154" s="17" t="b">
         <v>0</v>
@@ -11399,10 +11402,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="17" t="s">
-        <v>416</v>
+        <v>378</v>
       </c>
       <c r="B155" s="17" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C155" s="17" t="b">
         <v>0</v>
@@ -11410,10 +11413,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="17" t="s">
-        <v>418</v>
+        <v>388</v>
       </c>
       <c r="B156" s="17" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C156" s="17" t="b">
         <v>0</v>
@@ -11421,40 +11424,40 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="17" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B157" s="17" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C157" s="17" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="19" t="s">
-        <v>399</v>
-      </c>
-      <c r="B158" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="C158" s="18" t="b">
-        <v>1</v>
+      <c r="A158" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="B158" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C158" s="17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="19" t="s">
-        <v>400</v>
-      </c>
-      <c r="B159" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="C159" s="18" t="b">
-        <v>1</v>
+      <c r="A159" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="B159" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C159" s="17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="19" t="s">
-        <v>529</v>
+        <v>398</v>
       </c>
       <c r="B160" s="18" t="s">
         <v>146</v>
@@ -11465,7 +11468,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="19" t="s">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="B161" s="18" t="s">
         <v>146</v>
@@ -11475,19 +11478,19 @@
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="18" t="s">
-        <v>521</v>
+      <c r="A162" s="19" t="s">
+        <v>528</v>
       </c>
       <c r="B162" s="18" t="s">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="C162" s="18" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="18" t="s">
-        <v>426</v>
+      <c r="A163" s="19" t="s">
+        <v>424</v>
       </c>
       <c r="B163" s="18" t="s">
         <v>146</v>
@@ -11497,11 +11500,11 @@
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="19" t="s">
-        <v>427</v>
+      <c r="A164" s="18" t="s">
+        <v>520</v>
       </c>
       <c r="B164" s="18" t="s">
-        <v>146</v>
+        <v>20</v>
       </c>
       <c r="C164" s="18" t="b">
         <v>1</v>
@@ -11509,7 +11512,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="18" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B165" s="18" t="s">
         <v>146</v>
@@ -11519,8 +11522,8 @@
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="18" t="s">
-        <v>514</v>
+      <c r="A166" s="19" t="s">
+        <v>426</v>
       </c>
       <c r="B166" s="18" t="s">
         <v>146</v>
@@ -11531,7 +11534,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="18" t="s">
-        <v>390</v>
+        <v>427</v>
       </c>
       <c r="B167" s="18" t="s">
         <v>146</v>
@@ -11542,10 +11545,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="18" t="s">
-        <v>536</v>
+        <v>513</v>
       </c>
       <c r="B168" s="18" t="s">
-        <v>36</v>
+        <v>146</v>
       </c>
       <c r="C168" s="18" t="b">
         <v>1</v>
@@ -11553,7 +11556,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="18" t="s">
-        <v>531</v>
+        <v>389</v>
       </c>
       <c r="B169" s="18" t="s">
         <v>146</v>
@@ -11564,12 +11567,34 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="18" t="s">
-        <v>429</v>
+        <v>535</v>
       </c>
       <c r="B170" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C170" s="18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="B171" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="C170" s="18" t="b">
+      <c r="C171" s="18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="B172" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C172" s="18" t="b">
         <v>1</v>
       </c>
     </row>
